--- a/medicine/Enfance/F._J._Harvey_Darton/F._J._Harvey_Darton.xlsx
+++ b/medicine/Enfance/F._J._Harvey_Darton/F._J._Harvey_Darton.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Frederick Joseph Harvey Darton, né le 22 septembre 1878 et mort le 26 juillet 1936 est un auteur, éditeur et historien de littérature d'enfance et de jeunesse britannique. 
 </t>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il a écrit un ouvrage qui relate l'histoire de la littérature d'enfance et de jeunesse en Angleterre, intitulé The Story of English Children's Books in England : Five Centuries of Social Life, en 1932. La Children's Books History Society décerne un prix en son honneur[2],[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il a écrit un ouvrage qui relate l'histoire de la littérature d'enfance et de jeunesse en Angleterre, intitulé The Story of English Children's Books in England : Five Centuries of Social Life, en 1932. La Children's Books History Society décerne un prix en son honneur,.
 Il a fait ses études au Sutton Valence School puis au Dover College et obtient un diplôme en art classique au St John's College à Oxford en 1899.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Œuvre sélective</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Darton's Sunday Pleasure Book (1898)
 The Story of the Canterbury Pilgrims: Retold from Chaucer and Others (1904)
